--- a/Human-Consistency Study/IDmismatch_SPrankPos_sample100_2.xlsx
+++ b/Human-Consistency Study/IDmismatch_SPrankPos_sample100_2.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayili/Desktop/paper/third_work/大修/human_study_last/Human-Consistency Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F558EB-DDA1-C246-A533-A45AEB491472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86E3435-C703-3544-BC33-FE2C0768C581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="753">
   <si>
     <t>label</t>
   </si>
@@ -1997,13 +2009,295 @@
   </si>
   <si>
     <t>0.6873050928115845</t>
+  </si>
+  <si>
+    <t>original_image_path</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0952001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0541002.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0299004.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1472_c3s3_060353_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1243_c6s3_043642_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1380_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9007_s17891.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_a/657_45.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0382_c1s2_017841_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1478_c3s3_060603_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p11805_s15365.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0623_c5s2_023505_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p10816_s17028.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1448_c3s3_057328_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0875003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0858_c2s2_104907_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p7916_s10606.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0330001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0661002.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0515_c4s2_068373_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3236_s4143.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10570_s15515.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0769_c3s3_068844_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0284004.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1821_s1874.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/982_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1849_s1941.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p1866_s1975.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0747_c2s3_067627_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p9326_s15733.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_a/097_0.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p3733_s4695.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0737003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0496001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1448_c3s3_057278_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1224_c1s5_040541_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0255_c6s1_060126_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p10078_s15234.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0299003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1212_s11866.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0884004.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0337001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p3543_s4511.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0657003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1103_c3s2_149294_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/752_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/627_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p11296_s12640.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p1881_s2004.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1224_c3s3_013828_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0875_c3s2_108603_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0316003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0400_c3s1_094592_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p6318_s8277.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0776002.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1453_c6s3_081467_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1093_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0580002.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/752_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0800001.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0966_c3s2_121419_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1257_c5s3_021415_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/826_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/461_1.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p2642_s3361.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_a/579_0.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/961_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0580003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0541003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/241_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p35_s66.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1343_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/814_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1224_c3s3_013803_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/786_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p5663_s7297.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0455_c2s1_115716_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/train_query/p8054_s10762.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1224_c5s3_014440_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/610_1.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/691_3.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_b/538_90.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/1235_4.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p11296_s12642.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0673002.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK03/47_2.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/0525_c1s3_022876_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_b/137_90.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/CUHK01/0496003.png</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/Market/1077_c3s2_143694_00.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/cam_a/113_0.bmp</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p11921_s12607.jpg</t>
+  </si>
+  <si>
+    <t>./CUHK-PEDES/imgs/test_query/p9626_s16145.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2018,6 +2312,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2027,7 +2338,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2035,12 +2346,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2345,11 +2675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2360,7 +2690,7 @@
     <col min="8" max="8" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2400,8 +2730,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2441,8 +2774,11 @@
       <c r="M2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2482,8 +2818,11 @@
       <c r="M3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2523,8 +2862,11 @@
       <c r="M4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2564,8 +2906,11 @@
       <c r="M5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2605,8 +2950,11 @@
       <c r="M6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2646,8 +2994,11 @@
       <c r="M7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2687,8 +3038,11 @@
       <c r="M8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2728,8 +3082,11 @@
       <c r="M9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2769,8 +3126,11 @@
       <c r="M10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2810,8 +3170,11 @@
       <c r="M11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2851,8 +3214,11 @@
       <c r="M12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2892,8 +3258,11 @@
       <c r="M13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1">
+      <c r="N13" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="21" customHeight="1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2933,8 +3302,11 @@
       <c r="M14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2974,8 +3346,11 @@
       <c r="M15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3015,8 +3390,11 @@
       <c r="M16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3056,8 +3434,11 @@
       <c r="M17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3097,8 +3478,11 @@
       <c r="M18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3138,8 +3522,11 @@
       <c r="M19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3179,8 +3566,11 @@
       <c r="M20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3220,8 +3610,11 @@
       <c r="M21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="24.5" customHeight="1">
+      <c r="N21" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="24.5" customHeight="1">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3261,8 +3654,11 @@
       <c r="M22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3302,8 +3698,11 @@
       <c r="M23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3343,8 +3742,11 @@
       <c r="M24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3384,8 +3786,11 @@
       <c r="M25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3425,8 +3830,11 @@
       <c r="M26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3466,8 +3874,11 @@
       <c r="M27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>203</v>
       </c>
@@ -3507,8 +3918,11 @@
       <c r="M28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>203</v>
       </c>
@@ -3548,8 +3962,11 @@
       <c r="M29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>203</v>
       </c>
@@ -3589,8 +4006,11 @@
       <c r="M30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3630,8 +4050,11 @@
       <c r="M31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3671,8 +4094,11 @@
       <c r="M32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3712,8 +4138,11 @@
       <c r="M33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3753,8 +4182,11 @@
       <c r="M34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3794,8 +4226,11 @@
       <c r="M35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -3835,8 +4270,11 @@
       <c r="M36" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -3876,8 +4314,11 @@
       <c r="M37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3917,8 +4358,11 @@
       <c r="M38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -3958,8 +4402,11 @@
       <c r="M39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>203</v>
       </c>
@@ -3999,8 +4446,11 @@
       <c r="M40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -4040,8 +4490,11 @@
       <c r="M41" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -4081,8 +4534,11 @@
       <c r="M42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -4122,8 +4578,11 @@
       <c r="M43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -4163,8 +4622,11 @@
       <c r="M44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -4204,8 +4666,11 @@
       <c r="M45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -4245,8 +4710,11 @@
       <c r="M46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -4286,8 +4754,11 @@
       <c r="M47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -4327,8 +4798,11 @@
       <c r="M48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -4368,8 +4842,11 @@
       <c r="M49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -4409,8 +4886,11 @@
       <c r="M50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -4450,8 +4930,11 @@
       <c r="M51" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>203</v>
       </c>
@@ -4491,8 +4974,11 @@
       <c r="M52" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -4532,8 +5018,11 @@
       <c r="M53" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4573,8 +5062,11 @@
       <c r="M54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4614,8 +5106,11 @@
       <c r="M55" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4655,8 +5150,11 @@
       <c r="M56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -4696,8 +5194,11 @@
       <c r="M57" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4737,8 +5238,11 @@
       <c r="M58" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -4778,8 +5282,11 @@
       <c r="M59" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4819,8 +5326,11 @@
       <c r="M60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4860,8 +5370,11 @@
       <c r="M61" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -4901,8 +5414,11 @@
       <c r="M62" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -4942,8 +5458,11 @@
       <c r="M63" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -4983,8 +5502,11 @@
       <c r="M64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -5024,8 +5546,11 @@
       <c r="M65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -5065,8 +5590,11 @@
       <c r="M66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -5106,8 +5634,11 @@
       <c r="M67" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -5147,8 +5678,11 @@
       <c r="M68" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -5188,8 +5722,11 @@
       <c r="M69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -5229,8 +5766,11 @@
       <c r="M70" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -5270,8 +5810,11 @@
       <c r="M71" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -5311,8 +5854,11 @@
       <c r="M72" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -5352,8 +5898,11 @@
       <c r="M73" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -5393,8 +5942,11 @@
       <c r="M74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -5434,8 +5986,11 @@
       <c r="M75" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -5475,8 +6030,11 @@
       <c r="M76" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -5516,8 +6074,11 @@
       <c r="M77" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -5557,8 +6118,11 @@
       <c r="M78" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -5598,8 +6162,11 @@
       <c r="M79" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -5639,8 +6206,11 @@
       <c r="M80" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -5680,8 +6250,11 @@
       <c r="M81" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -5721,8 +6294,11 @@
       <c r="M82" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -5762,8 +6338,11 @@
       <c r="M83" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -5803,8 +6382,11 @@
       <c r="M84" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -5844,8 +6426,11 @@
       <c r="M85" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -5885,8 +6470,11 @@
       <c r="M86" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -5926,8 +6514,11 @@
       <c r="M87" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -5967,8 +6558,11 @@
       <c r="M88" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -6008,8 +6602,11 @@
       <c r="M89" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -6049,8 +6646,11 @@
       <c r="M90" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -6090,8 +6690,11 @@
       <c r="M91" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -6131,8 +6734,11 @@
       <c r="M92" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -6172,8 +6778,11 @@
       <c r="M93" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -6213,8 +6822,11 @@
       <c r="M94" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -6254,8 +6866,11 @@
       <c r="M95" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -6295,8 +6910,11 @@
       <c r="M96" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -6336,8 +6954,11 @@
       <c r="M97" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -6377,8 +6998,11 @@
       <c r="M98" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -6418,8 +7042,11 @@
       <c r="M99" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -6459,8 +7086,11 @@
       <c r="M100" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>33</v>
       </c>
@@ -6499,6 +7129,9 @@
       </c>
       <c r="M101" t="s">
         <v>24</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>
